--- a/biology/Médecine/Maïga_Zeïnab_Mint_Youba/Maïga_Zeïnab_Mint_Youba.xlsx
+++ b/biology/Médecine/Maïga_Zeïnab_Mint_Youba/Maïga_Zeïnab_Mint_Youba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AFga_Ze%C3%AFnab_Mint_Youba</t>
+          <t>Maïga_Zeïnab_Mint_Youba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maïga Zeïnab Mint Youba, née le 30 novembre 1955 à Bamba, est une femme politique et médecin malienne. Elle est notamment ministre de la Santé de 2004 à 2007.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AFga_Ze%C3%AFnab_Mint_Youba</t>
+          <t>Maïga_Zeïnab_Mint_Youba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maïga Zeïnab Mint Youba obtient un doctorat en médecine à l'École nationale de médecine et de pharmacie de Bamako en 1978. Elle est alors médecin-chef du dispensaire de Quinzambougou, puis du Centre de santé de la commune I de Bamako. Directrice régionale de la santé et des Affaires sociales de Koulikoro de 1990 à 1993, elle officie ensuite de 1993 à 2000 au Programme national de lutte contre le VIH, puis au ministère de la Santé et à la Direction nationale de la Santé[1].
-En politique, elle est responsable du mouvement des femmes du Rassemblement pour le Mali. Elle est ministre de la Santé du 2 mai 2004 au 3 octobre 2007 au sein du gouvernement Ousmane Issoufi Maïga. Elle est ensuite chargée de mission à la présidence de la République de 2008 à 2011 puis conseillère spéciale à la présidence de la République [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maïga Zeïnab Mint Youba obtient un doctorat en médecine à l'École nationale de médecine et de pharmacie de Bamako en 1978. Elle est alors médecin-chef du dispensaire de Quinzambougou, puis du Centre de santé de la commune I de Bamako. Directrice régionale de la santé et des Affaires sociales de Koulikoro de 1990 à 1993, elle officie ensuite de 1993 à 2000 au Programme national de lutte contre le VIH, puis au ministère de la Santé et à la Direction nationale de la Santé.
+En politique, elle est responsable du mouvement des femmes du Rassemblement pour le Mali. Elle est ministre de la Santé du 2 mai 2004 au 3 octobre 2007 au sein du gouvernement Ousmane Issoufi Maïga. Elle est ensuite chargée de mission à la présidence de la République de 2008 à 2011 puis conseillère spéciale à la présidence de la République .
 </t>
         </is>
       </c>
